--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\riad\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3E392-2889-410E-B142-5F1F07357D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72070AB8-F7AA-458C-9FF7-456ACF804356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1665" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>riad@exemple.com</t>
+  </si>
+  <si>
+    <t>samir</t>
+  </si>
+  <si>
+    <t>samir@exemple.com</t>
+  </si>
+  <si>
+    <t>talal</t>
+  </si>
+  <si>
+    <t>talal@exemple.com</t>
   </si>
 </sst>
 </file>
@@ -434,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,12 +528,42 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{DD3555FC-D438-4FCE-A005-A2935AB777E7}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{003A5547-5D68-46C8-82E6-E4F308402333}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{24EC3E43-C7E0-4CDD-9F8D-CD272FE438D1}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{2AEFA472-1B46-4AB1-9C11-341EFB9A9CB3}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{81C998E6-CA1C-4301-B3C8-705D1F9850B4}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{CFE6AFD7-BDF5-4398-8D9F-207E6C954772}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
